--- a/cenarios-de-teste.xlsx
+++ b/cenarios-de-teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavo/GingaDev/contacts-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA8B42-6F0C-064D-8A18-9F98C121EDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F2A379-B5B4-A149-AD93-BA91243B5806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="15300" xr2:uid="{BA43323D-FC63-694B-98D4-B35E5633225D}"/>
+    <workbookView xWindow="660" yWindow="1000" windowWidth="27840" windowHeight="15300" xr2:uid="{BA43323D-FC63-694B-98D4-B35E5633225D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Cenarios de teste "Login"</t>
   </si>
@@ -59,75 +59,15 @@
     <t>Realizar login com "Email" invalido e password valida</t>
   </si>
   <si>
-    <r>
-      <t>Falha de login com a seguinte mensagem: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Email is not valid"</t>
-    </r>
-  </si>
-  <si>
     <t>Falha no login conforme o resultado esperado</t>
   </si>
   <si>
     <t>Realizar login com username valido e "Password" invalida</t>
   </si>
   <si>
-    <r>
-      <t>Falha de login com a seguinte mensagem: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Invalid email or password"</t>
-    </r>
-  </si>
-  <si>
     <t>Realizar login com "Email" e "Password" vazio</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sem preencher os campos Username e Password deve falhar a tentativa de login, mostranto abaixo dos campos as seguintes mensagens: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Email is required </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Password is required</t>
-    </r>
-  </si>
-  <si>
     <t>Realizar login com "Username" vazio e password valida</t>
   </si>
   <si>
@@ -138,13 +78,16 @@
   </si>
   <si>
     <t>Login Realizado com sucesso fez o login e me mandou para o "Dashboar"</t>
+  </si>
+  <si>
+    <t>Falha de login, não deve mudar tela, continuar na tela de login.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,12 +105,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -227,9 +164,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -238,6 +172,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,7 +513,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,32 +524,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -620,54 +557,54 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/cenarios-de-teste.xlsx
+++ b/cenarios-de-teste.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavo/GingaDev/contacts-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F2A379-B5B4-A149-AD93-BA91243B5806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4338E414-A27B-7C46-8E70-8BB793AD5E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1000" windowWidth="27840" windowHeight="15300" xr2:uid="{BA43323D-FC63-694B-98D4-B35E5633225D}"/>
+    <workbookView xWindow="1000" yWindow="780" windowWidth="26820" windowHeight="13240" activeTab="2" xr2:uid="{BA43323D-FC63-694B-98D4-B35E5633225D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
+    <sheet name="BOTOES DASHBOARD" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>Cenarios de teste "Login"</t>
   </si>
@@ -81,6 +83,120 @@
   </si>
   <si>
     <t>Falha de login, não deve mudar tela, continuar na tela de login.</t>
+  </si>
+  <si>
+    <t>Cenarios de teste "BOTOES DASBOARD"</t>
+  </si>
+  <si>
+    <t>Botão "Novo Contato"</t>
+  </si>
+  <si>
+    <t>Ao clicar deve direcionar para uma tela de formulario onde cadastra um novo contato</t>
+  </si>
+  <si>
+    <t>Passou - conforme resiltado esperado</t>
+  </si>
+  <si>
+    <t>Botão "Sair"</t>
+  </si>
+  <si>
+    <t>Ao clicar deve fazer logout, solicitando login novamente</t>
+  </si>
+  <si>
+    <t>Botão "Like"</t>
+  </si>
+  <si>
+    <t>Ao clicar deve aumentar o numero presente no proprio botão "Likes"</t>
+  </si>
+  <si>
+    <t>Botão "Deslike"</t>
+  </si>
+  <si>
+    <t>Ao clicar deve diminuir o numero de "Likes"</t>
+  </si>
+  <si>
+    <t>Botão "Editar"</t>
+  </si>
+  <si>
+    <t>Ao clicar deve abri o formulario para Editar o contato</t>
+  </si>
+  <si>
+    <t>Botão "Excluir"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao clicar deve abrir um modal questionando se realmente deseja excluir </t>
+  </si>
+  <si>
+    <t>"Link" para primeiro contato</t>
+  </si>
+  <si>
+    <t>Cenarios de teste "NEW CONTACT"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar com todos os dados validos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastro realizado com sucesso, volta para tela dashboard listando nela os contatos cadastrados </t>
+  </si>
+  <si>
+    <t>Passou - conforme resultado esperado</t>
+  </si>
+  <si>
+    <t>Cadastrar sem passar o "Sobrenome" que é um campo obrigatorio.</t>
+  </si>
+  <si>
+    <t>Cadastrar sem passar o "Nome" que é um campo obrigatorio.</t>
+  </si>
+  <si>
+    <t>Cadastrar sem passar a "Data de Nascimento" que é um campo obrigatorio.</t>
+  </si>
+  <si>
+    <t>Cadastrar "Nome" com menos de 4 caracteres</t>
+  </si>
+  <si>
+    <t>Cadastrar "Sobrenome" com menos de 4 caracteres</t>
+  </si>
+  <si>
+    <t>Cadastrar "Nome" com mais de 256 caracteres</t>
+  </si>
+  <si>
+    <t>Deve negar a tentativa de login solicitando que o nome possua ate 256 caracteres</t>
+  </si>
+  <si>
+    <t>Falhou - no teste foi passado um nome com 257 caracteres e deixou cadastrar.</t>
+  </si>
+  <si>
+    <t>Cadastrar "Sobrenome" com mais de 256 caracteres</t>
+  </si>
+  <si>
+    <t>Falhou - no teste foi passado um "Sobrenome" com 257 caracteres e deixou cadastrar.</t>
+  </si>
+  <si>
+    <t>Cadastrar com data no formato da documentação AAAA/MM/DD</t>
+  </si>
+  <si>
+    <t>Deve seguir o formato da documentação</t>
+  </si>
+  <si>
+    <t>Falhou - Formato da data esta invalido</t>
+  </si>
+  <si>
+    <t>Cadastrar um contato menor de 18 anos</t>
+  </si>
+  <si>
+    <t>Deve negar a tentativa de cadastrar, poir e obrigatorio ter no minimo 18 anos</t>
+  </si>
+  <si>
+    <t>Deve negar a tentativa de cadastro solicitando preencher o campo</t>
+  </si>
+  <si>
+    <t>Deve negar a tentativa de cadastro solicitando que o nome possua ate 256 caracteres</t>
+  </si>
+  <si>
+    <t>Deve negar a tentativa de cadastro solicitando preencher no minimo 4 caracteres</t>
+  </si>
+  <si>
+    <t>Cadastrar sem passar o "Sexo Biologico" que é um campo obrigatorio.</t>
   </si>
 </sst>
 </file>
@@ -109,7 +225,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,7 +246,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFE4FFDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -175,6 +297,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F09C02C-B935-4F45-9B3B-7F6000CAF874}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A7:C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,57 +667,57 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -606,6 +731,291 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B95486-787D-F540-98FE-8FDE6D265699}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45890EFB-6C45-0540-A595-47388FC1A1CE}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C13" sqref="A13:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
